--- a/annotation_tamil_non-psych_verbs.xlsx
+++ b/annotation_tamil_non-psych_verbs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SadhanaOldlaptop\Velsadhana\Masterscourse\Linguistics Data Science\Sum sem 2023\Research project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F525270E-7842-4CC5-A1B9-C841D8900C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CE4ED7-9BF1-4729-AB32-7C3CECC7F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94A1A90B-23BF-4C0D-9ED5-996AD656970C}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
   <dimension ref="A1:S400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2970,7 +2970,7 @@
         <v>7</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s">
         <v>29</v>
@@ -3560,7 +3560,7 @@
         <v>8</v>
       </c>
       <c r="R30" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S30" t="s">
         <v>29</v>
@@ -4386,7 +4386,7 @@
         <v>13</v>
       </c>
       <c r="R44" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S44" t="s">
         <v>29</v>
@@ -5802,7 +5802,7 @@
         <v>13</v>
       </c>
       <c r="R68" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S68" t="s">
         <v>29</v>
@@ -6569,7 +6569,7 @@
         <v>9</v>
       </c>
       <c r="R81" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S81" t="s">
         <v>29</v>
@@ -7100,7 +7100,7 @@
         <v>11</v>
       </c>
       <c r="R90" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S90" t="s">
         <v>29</v>
@@ -7631,7 +7631,7 @@
         <v>7</v>
       </c>
       <c r="R99" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S99" t="s">
         <v>29</v>
@@ -7985,7 +7985,7 @@
         <v>8</v>
       </c>
       <c r="R105" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S105" t="s">
         <v>29</v>
@@ -9283,7 +9283,7 @@
         <v>7</v>
       </c>
       <c r="R127" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S127" t="s">
         <v>29</v>
@@ -9342,7 +9342,7 @@
         <v>13</v>
       </c>
       <c r="R128" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S128" t="s">
         <v>29</v>
@@ -12233,7 +12233,7 @@
         <v>8</v>
       </c>
       <c r="R177" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S177" t="s">
         <v>29</v>
@@ -12941,7 +12941,7 @@
         <v>10</v>
       </c>
       <c r="R189" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S189" t="s">
         <v>29</v>
@@ -14357,7 +14357,7 @@
         <v>14</v>
       </c>
       <c r="R213" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S213" t="s">
         <v>29</v>
@@ -15891,7 +15891,7 @@
         <v>11</v>
       </c>
       <c r="R239" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S239" t="s">
         <v>29</v>
@@ -16304,7 +16304,7 @@
         <v>7</v>
       </c>
       <c r="R246" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S246" t="s">
         <v>29</v>
@@ -16481,7 +16481,7 @@
         <v>15</v>
       </c>
       <c r="R249" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S249" t="s">
         <v>29</v>
@@ -16540,7 +16540,7 @@
         <v>13</v>
       </c>
       <c r="R250" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S250" t="s">
         <v>29</v>
@@ -17127,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R260" t="s">
         <v>55</v>
@@ -17484,7 +17484,7 @@
         <v>9</v>
       </c>
       <c r="R266" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S266" t="s">
         <v>29</v>
@@ -17956,7 +17956,7 @@
         <v>19</v>
       </c>
       <c r="R274" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S274" t="s">
         <v>29</v>
@@ -21378,7 +21378,7 @@
         <v>14</v>
       </c>
       <c r="R332" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S332" t="s">
         <v>29</v>
@@ -22676,7 +22676,7 @@
         <v>14</v>
       </c>
       <c r="R354" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S354" t="s">
         <v>29</v>
@@ -23148,7 +23148,7 @@
         <v>12</v>
       </c>
       <c r="R362" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S362" t="s">
         <v>29</v>
@@ -24623,7 +24623,7 @@
         <v>8</v>
       </c>
       <c r="R387" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S387" t="s">
         <v>29</v>

--- a/annotation_tamil_non-psych_verbs.xlsx
+++ b/annotation_tamil_non-psych_verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SadhanaOldlaptop\Velsadhana\Masterscourse\Linguistics Data Science\Sum sem 2023\Research project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CE4ED7-9BF1-4729-AB32-7C3CECC7F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBA8CD5-DD06-4E8C-A7E8-972F194493CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94A1A90B-23BF-4C0D-9ED5-996AD656970C}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
   <dimension ref="A1:S400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="V332" sqref="V332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,7 +2256,7 @@
         <v>22</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2698,13 +2698,13 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -2728,7 +2728,7 @@
         <v>22</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3288,13 +3288,13 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
         <v>24</v>
@@ -3318,7 +3318,7 @@
         <v>22</v>
       </c>
       <c r="P26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -3819,13 +3819,13 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
         <v>24</v>
@@ -3849,7 +3849,7 @@
         <v>22</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -3908,7 +3908,7 @@
         <v>22</v>
       </c>
       <c r="P36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8539,13 +8539,13 @@
         <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G115" t="s">
         <v>22</v>
       </c>
       <c r="H115" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I115" t="s">
         <v>24</v>
@@ -8569,7 +8569,7 @@
         <v>22</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q115">
         <v>1</v>
@@ -13967,13 +13967,13 @@
         <v>21</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G207" t="s">
         <v>22</v>
       </c>
       <c r="H207" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I207" t="s">
         <v>24</v>
@@ -13991,13 +13991,13 @@
         <v>28</v>
       </c>
       <c r="N207" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O207" t="s">
         <v>22</v>
       </c>
       <c r="P207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q207">
         <v>1</v>
@@ -14085,13 +14085,13 @@
         <v>21</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G209" t="s">
         <v>22</v>
       </c>
       <c r="H209" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I209" t="s">
         <v>24</v>
@@ -14115,7 +14115,7 @@
         <v>22</v>
       </c>
       <c r="P209">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -14528,7 +14528,7 @@
         <v>22</v>
       </c>
       <c r="P216">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q216">
         <v>2</v>
@@ -14587,7 +14587,7 @@
         <v>22</v>
       </c>
       <c r="P217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -16121,7 +16121,7 @@
         <v>22</v>
       </c>
       <c r="P243">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q243">
         <v>1</v>
@@ -17802,13 +17802,13 @@
         <v>21</v>
       </c>
       <c r="F272" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G272" t="s">
         <v>22</v>
       </c>
       <c r="H272" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I272" t="s">
         <v>24</v>
@@ -17832,7 +17832,7 @@
         <v>22</v>
       </c>
       <c r="P272">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q272">
         <v>1</v>
@@ -19159,13 +19159,13 @@
         <v>21</v>
       </c>
       <c r="F295" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G295" t="s">
         <v>22</v>
       </c>
       <c r="H295" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I295" t="s">
         <v>24</v>
@@ -19183,13 +19183,13 @@
         <v>27</v>
       </c>
       <c r="N295" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O295" t="s">
         <v>22</v>
       </c>
       <c r="P295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q295">
         <v>2</v>
@@ -19395,13 +19395,13 @@
         <v>21</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G299" t="s">
         <v>22</v>
       </c>
       <c r="H299" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I299" t="s">
         <v>24</v>
@@ -19419,13 +19419,13 @@
         <v>28</v>
       </c>
       <c r="N299" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O299" t="s">
         <v>22</v>
       </c>
       <c r="P299">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q299">
         <v>1</v>
@@ -19513,13 +19513,13 @@
         <v>21</v>
       </c>
       <c r="F301" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G301" t="s">
         <v>22</v>
       </c>
       <c r="H301" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I301" t="s">
         <v>24</v>
@@ -19543,7 +19543,7 @@
         <v>22</v>
       </c>
       <c r="P301">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q301">
         <v>6</v>
@@ -19956,7 +19956,7 @@
         <v>22</v>
       </c>
       <c r="P308">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q308">
         <v>1</v>
@@ -20988,13 +20988,13 @@
         <v>21</v>
       </c>
       <c r="F326" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G326" t="s">
         <v>22</v>
       </c>
       <c r="H326" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I326" t="s">
         <v>24</v>
@@ -21018,7 +21018,7 @@
         <v>22</v>
       </c>
       <c r="P326">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -21047,13 +21047,13 @@
         <v>21</v>
       </c>
       <c r="F327" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G327" t="s">
         <v>22</v>
       </c>
       <c r="H327" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I327" t="s">
         <v>24</v>
@@ -21077,7 +21077,7 @@
         <v>22</v>
       </c>
       <c r="P327">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q327">
         <v>3</v>
@@ -21165,13 +21165,13 @@
         <v>21</v>
       </c>
       <c r="F329" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G329" t="s">
         <v>22</v>
       </c>
       <c r="H329" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I329" t="s">
         <v>24</v>
@@ -21189,13 +21189,13 @@
         <v>28</v>
       </c>
       <c r="N329" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O329" t="s">
         <v>22</v>
       </c>
       <c r="P329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q329">
         <v>2</v>
@@ -21401,13 +21401,13 @@
         <v>21</v>
       </c>
       <c r="F333" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G333" t="s">
         <v>22</v>
       </c>
       <c r="H333" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I333" t="s">
         <v>24</v>
@@ -21431,7 +21431,7 @@
         <v>22</v>
       </c>
       <c r="P333">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q333">
         <v>4</v>
@@ -21844,7 +21844,7 @@
         <v>22</v>
       </c>
       <c r="P340">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q340">
         <v>1</v>
@@ -23378,7 +23378,7 @@
         <v>22</v>
       </c>
       <c r="P366">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q366">
         <v>3</v>
@@ -24499,7 +24499,7 @@
         <v>22</v>
       </c>
       <c r="P385">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q385">
         <v>3</v>
@@ -25148,7 +25148,7 @@
         <v>22</v>
       </c>
       <c r="P396">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Q396">
         <v>2</v>
@@ -25325,7 +25325,7 @@
         <v>31</v>
       </c>
       <c r="P399">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q399">
         <v>1</v>
